--- a/data/trans_orig/P32B-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P32B-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{262A51AB-9153-4597-A0F6-53FC53E49872}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3048EFA7-C300-48C1-992A-7816989BE129}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{BF6A8B42-72FE-45D2-8732-BFF3333EF573}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{89274947-80DF-4302-B2E9-BEC0E5D457F0}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="242">
   <si>
     <t>Población según si se han sentido mal o culpables por su forma de beber en 2007 (Tasa respuesta: 41,76%)</t>
   </si>
@@ -77,523 +77,541 @@
     <t>1,38%</t>
   </si>
   <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>98,62%</t>
+  </si>
+  <si>
+    <t>96,94%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>97,65%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
     <t>0,57%</t>
   </si>
   <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>98,63%</t>
+  </si>
+  <si>
+    <t>97,32%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
+  </si>
+  <si>
+    <t>98,95%</t>
+  </si>
+  <si>
+    <t>96,28%</t>
+  </si>
+  <si>
+    <t>99,35%</t>
+  </si>
+  <si>
+    <t>98,17%</t>
+  </si>
+  <si>
+    <t>99,81%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>98,14%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si se han sentido mal o culpables por su forma de beber en 2012 (Tasa respuesta: 44,32%)</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>97,41%</t>
+  </si>
+  <si>
+    <t>95,1%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>96,41%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
+  </si>
+  <si>
     <t>3,04%</t>
   </si>
   <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>98,62%</t>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
   </si>
   <si>
     <t>96,96%</t>
   </si>
   <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>97,71%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
+    <t>95,89%</t>
+  </si>
+  <si>
+    <t>97,76%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>97,62%</t>
+  </si>
+  <si>
+    <t>96,83%</t>
+  </si>
+  <si>
+    <t>98,25%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>97,3%</t>
+  </si>
+  <si>
+    <t>94,41%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
+  </si>
+  <si>
+    <t>99,39%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>97,13%</t>
+  </si>
+  <si>
+    <t>96,34%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>98,51%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
+  </si>
+  <si>
+    <t>97,87%</t>
+  </si>
+  <si>
+    <t>97,29%</t>
+  </si>
+  <si>
+    <t>98,38%</t>
+  </si>
+  <si>
+    <t>Población según si se han sentido mal o culpables por su forma de beber en 2015 (Tasa respuesta: 45,5%)</t>
   </si>
   <si>
     <t>2,8%</t>
   </si>
   <si>
-    <t>0,92%</t>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>97,2%</t>
+  </si>
+  <si>
+    <t>94,75%</t>
+  </si>
+  <si>
+    <t>95,87%</t>
+  </si>
+  <si>
+    <t>97,75%</t>
+  </si>
+  <si>
+    <t>95,99%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>98,06%</t>
+  </si>
+  <si>
+    <t>97,19%</t>
+  </si>
+  <si>
+    <t>98,74%</t>
+  </si>
+  <si>
+    <t>97,98%</t>
+  </si>
+  <si>
+    <t>97,73%</t>
+  </si>
+  <si>
+    <t>98,9%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>97,92%</t>
+  </si>
+  <si>
+    <t>95,74%</t>
+  </si>
+  <si>
+    <t>97,12%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
+  </si>
+  <si>
+    <t>97,07%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
   </si>
   <si>
     <t>0,52%</t>
   </si>
   <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>99,3%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>98,63%</t>
-  </si>
-  <si>
-    <t>97,2%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>98,52%</t>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>97,88%</t>
+  </si>
+  <si>
+    <t>97,06%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
+  </si>
+  <si>
+    <t>98,28%</t>
   </si>
   <si>
     <t>99,48%</t>
   </si>
   <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
-  </si>
-  <si>
-    <t>98,95%</t>
-  </si>
-  <si>
-    <t>96,34%</t>
-  </si>
-  <si>
-    <t>99,35%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>99,81%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>98,03%</t>
-  </si>
-  <si>
-    <t>99,45%</t>
-  </si>
-  <si>
-    <t>99,11%</t>
-  </si>
-  <si>
-    <t>98,69%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si se han sentido mal o culpables por su forma de beber en 2012 (Tasa respuesta: 44,32%)</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
-  </si>
-  <si>
-    <t>95,09%</t>
-  </si>
-  <si>
-    <t>98,65%</t>
-  </si>
-  <si>
-    <t>97,54%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
-  </si>
-  <si>
-    <t>98,94%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>95,78%</t>
-  </si>
-  <si>
-    <t>97,72%</t>
-  </si>
-  <si>
-    <t>97,88%</t>
-  </si>
-  <si>
-    <t>99,51%</t>
-  </si>
-  <si>
-    <t>97,62%</t>
-  </si>
-  <si>
-    <t>96,87%</t>
-  </si>
-  <si>
-    <t>98,25%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>97,3%</t>
-  </si>
-  <si>
-    <t>94,39%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
-  </si>
-  <si>
-    <t>96,61%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>97,13%</t>
-  </si>
-  <si>
-    <t>96,12%</t>
-  </si>
-  <si>
-    <t>97,82%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
-  </si>
-  <si>
-    <t>98,59%</t>
-  </si>
-  <si>
-    <t>99,7%</t>
-  </si>
-  <si>
-    <t>97,87%</t>
-  </si>
-  <si>
-    <t>97,28%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
-  </si>
-  <si>
-    <t>Población según si se han sentido mal o culpables por su forma de beber en 2015 (Tasa respuesta: 45,5%)</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>94,78%</t>
-  </si>
-  <si>
-    <t>96,37%</t>
-  </si>
-  <si>
-    <t>97,75%</t>
-  </si>
-  <si>
-    <t>96,04%</t>
-  </si>
-  <si>
-    <t>98,93%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>98,06%</t>
-  </si>
-  <si>
-    <t>97,11%</t>
-  </si>
-  <si>
-    <t>98,0%</t>
-  </si>
-  <si>
-    <t>98,38%</t>
-  </si>
-  <si>
-    <t>97,63%</t>
-  </si>
-  <si>
-    <t>98,87%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>97,92%</t>
-  </si>
-  <si>
-    <t>95,51%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
-  </si>
-  <si>
-    <t>97,19%</t>
-  </si>
-  <si>
-    <t>99,67%</t>
-  </si>
-  <si>
-    <t>98,37%</t>
-  </si>
-  <si>
-    <t>96,93%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>97,12%</t>
-  </si>
-  <si>
-    <t>98,47%</t>
-  </si>
-  <si>
-    <t>98,97%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
-  </si>
-  <si>
-    <t>98,28%</t>
-  </si>
-  <si>
-    <t>97,78%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
+    <t>97,77%</t>
   </si>
   <si>
     <t>Población según si se han sentido mal o culpables por su forma de beber en 2023 (Tasa respuesta: 31,88%)</t>
@@ -602,187 +620,151 @@
     <t>4,64%</t>
   </si>
   <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
   </si>
   <si>
     <t>1,21%</t>
   </si>
   <si>
-    <t>4,29%</t>
+    <t>4,06%</t>
   </si>
   <si>
     <t>3,87%</t>
   </si>
   <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
   </si>
   <si>
     <t>95,36%</t>
   </si>
   <si>
-    <t>92,41%</t>
-  </si>
-  <si>
-    <t>97,33%</t>
+    <t>91,3%</t>
+  </si>
+  <si>
+    <t>97,35%</t>
   </si>
   <si>
     <t>98,79%</t>
   </si>
   <si>
-    <t>95,71%</t>
+    <t>95,94%</t>
   </si>
   <si>
     <t>96,13%</t>
   </si>
   <si>
-    <t>93,66%</t>
-  </si>
-  <si>
-    <t>97,77%</t>
+    <t>93,5%</t>
+  </si>
+  <si>
+    <t>97,69%</t>
   </si>
   <si>
     <t>1,19%</t>
   </si>
   <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
     <t>1,56%</t>
   </si>
   <si>
-    <t>3,3%</t>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
   </si>
   <si>
     <t>1,34%</t>
   </si>
   <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
   </si>
   <si>
     <t>98,81%</t>
   </si>
   <si>
-    <t>97,81%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
     <t>98,44%</t>
   </si>
   <si>
-    <t>96,7%</t>
+    <t>96,54%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
   </si>
   <si>
     <t>98,66%</t>
   </si>
   <si>
-    <t>97,8%</t>
-  </si>
-  <si>
-    <t>99,24%</t>
+    <t>97,74%</t>
+  </si>
+  <si>
+    <t>99,2%</t>
   </si>
   <si>
     <t>1,89%</t>
   </si>
   <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
+    <t>4,12%</t>
   </si>
   <si>
     <t>1,47%</t>
   </si>
   <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
     <t>1,71%</t>
   </si>
   <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
   </si>
   <si>
     <t>98,11%</t>
   </si>
   <si>
-    <t>95,99%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
+    <t>95,88%</t>
   </si>
   <si>
     <t>98,53%</t>
   </si>
   <si>
-    <t>96,74%</t>
-  </si>
-  <si>
-    <t>99,44%</t>
-  </si>
-  <si>
     <t>98,29%</t>
   </si>
   <si>
-    <t>97,04%</t>
-  </si>
-  <si>
-    <t>99,04%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
+    <t>97,05%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
   </si>
   <si>
     <t>1,51%</t>
   </si>
   <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
-  </si>
-  <si>
-    <t>98,74%</t>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>97,25%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
   </si>
   <si>
     <t>98,49%</t>
   </si>
   <si>
-    <t>97,25%</t>
-  </si>
-  <si>
-    <t>97,56%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
+    <t>97,59%</t>
   </si>
 </sst>
 </file>
@@ -1194,7 +1176,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80D5F092-87D8-406D-B301-80AA28ABAC42}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64386FDB-471A-4C25-ADEF-8B250A364ED1}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1479,7 +1461,7 @@
         <v>32</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="H7" s="7">
         <v>7</v>
@@ -1488,13 +1470,13 @@
         <v>7283</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M7" s="7">
         <v>15</v>
@@ -1503,13 +1485,13 @@
         <v>14655</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1524,13 +1506,13 @@
         <v>1051046</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H8" s="7">
         <v>516</v>
@@ -1539,13 +1521,13 @@
         <v>525571</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="M8" s="7">
         <v>1542</v>
@@ -1554,13 +1536,13 @@
         <v>1576617</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1616,7 +1598,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1628,13 +1610,13 @@
         <v>1466</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>14</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="H10" s="7">
         <v>2</v>
@@ -1643,13 +1625,13 @@
         <v>2048</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="M10" s="7">
         <v>3</v>
@@ -1658,13 +1640,13 @@
         <v>3514</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1679,10 +1661,10 @@
         <v>349041</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>28</v>
+        <v>58</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>24</v>
@@ -1694,10 +1676,10 @@
         <v>192084</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>24</v>
@@ -1709,13 +1691,13 @@
         <v>541125</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1783,13 +1765,13 @@
         <v>15343</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="H13" s="7">
         <v>9</v>
@@ -1798,13 +1780,13 @@
         <v>9331</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="M13" s="7">
         <v>24</v>
@@ -1813,13 +1795,13 @@
         <v>24674</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1834,13 +1816,13 @@
         <v>1864575</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="H14" s="7">
         <v>865</v>
@@ -1849,13 +1831,13 @@
         <v>885189</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="M14" s="7">
         <v>2695</v>
@@ -1864,13 +1846,13 @@
         <v>2749765</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1926,7 +1908,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -1945,7 +1927,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{818D8E38-A518-4DAA-8523-687978E786E8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED80CCB9-AE88-4A96-84C0-DF9D4504B49A}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1962,7 +1944,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2069,13 +2051,13 @@
         <v>13252</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -2084,13 +2066,13 @@
         <v>978</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>81</v>
+        <v>19</v>
       </c>
       <c r="M4" s="7">
         <v>11</v>
@@ -2099,13 +2081,13 @@
         <v>14230</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>50</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2120,13 +2102,13 @@
         <v>498366</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="H5" s="7">
         <v>212</v>
@@ -2135,10 +2117,10 @@
         <v>229204</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>87</v>
+        <v>28</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>24</v>
@@ -2150,13 +2132,13 @@
         <v>727570</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>56</v>
+        <v>92</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2224,13 +2206,13 @@
         <v>36393</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>13</v>
+        <v>94</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="H7" s="7">
         <v>6</v>
@@ -2239,13 +2221,13 @@
         <v>6229</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="M7" s="7">
         <v>44</v>
@@ -2254,13 +2236,13 @@
         <v>42622</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2275,13 +2257,13 @@
         <v>1162375</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>22</v>
+        <v>101</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="H8" s="7">
         <v>542</v>
@@ -2290,13 +2272,13 @@
         <v>587719</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="M8" s="7">
         <v>1635</v>
@@ -2305,13 +2287,13 @@
         <v>1750093</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2367,7 +2349,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2379,13 +2361,13 @@
         <v>8817</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>16</v>
+        <v>109</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -2400,7 +2382,7 @@
         <v>15</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="M10" s="7">
         <v>7</v>
@@ -2409,13 +2391,13 @@
         <v>8817</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>34</v>
+        <v>113</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2430,13 +2412,13 @@
         <v>317379</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>25</v>
+        <v>117</v>
       </c>
       <c r="H11" s="7">
         <v>202</v>
@@ -2448,7 +2430,7 @@
         <v>24</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>26</v>
@@ -2460,13 +2442,13 @@
         <v>541986</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>43</v>
+        <v>121</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2534,13 +2516,13 @@
         <v>58462</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>115</v>
+        <v>51</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="H13" s="7">
         <v>7</v>
@@ -2549,13 +2531,13 @@
         <v>7207</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="M13" s="7">
         <v>62</v>
@@ -2564,13 +2546,13 @@
         <v>65668</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2585,28 +2567,28 @@
         <v>1978120</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>125</v>
+        <v>58</v>
       </c>
       <c r="H14" s="7">
         <v>956</v>
       </c>
       <c r="I14" s="7">
-        <v>1041530</v>
+        <v>1041529</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="M14" s="7">
         <v>2816</v>
@@ -2615,13 +2597,13 @@
         <v>3019650</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2648,7 +2630,7 @@
         <v>963</v>
       </c>
       <c r="I15" s="7">
-        <v>1048737</v>
+        <v>1048736</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>26</v>
@@ -2677,7 +2659,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -2696,7 +2678,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1179BF55-899B-4BBE-BAD8-582381C1BB07}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F3C34F5-762A-4505-82D7-984B48CB1894}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2713,7 +2695,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2820,13 +2802,13 @@
         <v>10037</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>35</v>
+        <v>139</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>33</v>
+        <v>109</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -2835,13 +2817,13 @@
         <v>1104</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="M4" s="7">
         <v>10</v>
@@ -2850,13 +2832,13 @@
         <v>11141</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2871,13 +2853,13 @@
         <v>348985</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>42</v>
+        <v>145</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>41</v>
+        <v>117</v>
       </c>
       <c r="H5" s="7">
         <v>126</v>
@@ -2886,10 +2868,10 @@
         <v>134086</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>24</v>
@@ -2901,13 +2883,13 @@
         <v>483071</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2975,13 +2957,13 @@
         <v>24338</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>62</v>
+        <v>152</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="H7" s="7">
         <v>8</v>
@@ -2990,13 +2972,13 @@
         <v>7782</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="M7" s="7">
         <v>31</v>
@@ -3005,13 +2987,13 @@
         <v>32120</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>146</v>
+        <v>128</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3026,13 +3008,13 @@
         <v>1231012</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>69</v>
+        <v>159</v>
       </c>
       <c r="H8" s="7">
         <v>692</v>
@@ -3041,13 +3023,13 @@
         <v>719116</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="M8" s="7">
         <v>1851</v>
@@ -3056,13 +3038,13 @@
         <v>1950128</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3118,7 +3100,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -3130,13 +3112,13 @@
         <v>7860</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>156</v>
+        <v>70</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="H10" s="7">
         <v>3</v>
@@ -3148,10 +3130,10 @@
         <v>17</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="M10" s="7">
         <v>10</v>
@@ -3160,13 +3142,13 @@
         <v>10730</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3181,13 +3163,13 @@
         <v>369662</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>165</v>
+        <v>78</v>
       </c>
       <c r="H11" s="7">
         <v>262</v>
@@ -3199,10 +3181,10 @@
         <v>27</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="M11" s="7">
         <v>600</v>
@@ -3211,13 +3193,13 @@
         <v>647409</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3285,13 +3267,13 @@
         <v>42235</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>93</v>
+        <v>177</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="H13" s="7">
         <v>12</v>
@@ -3300,13 +3282,13 @@
         <v>11756</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>64</v>
+        <v>181</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="M13" s="7">
         <v>51</v>
@@ -3315,13 +3297,13 @@
         <v>53991</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>176</v>
+        <v>33</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3336,13 +3318,13 @@
         <v>1949660</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>99</v>
+        <v>184</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="H14" s="7">
         <v>1080</v>
@@ -3351,13 +3333,13 @@
         <v>1130948</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>73</v>
+        <v>189</v>
       </c>
       <c r="M14" s="7">
         <v>2926</v>
@@ -3366,13 +3348,13 @@
         <v>3080608</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>184</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3428,7 +3410,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -3447,7 +3429,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F66EB230-3F72-4F2D-985B-1D9B0E2AB68B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7EA561D-7E94-476B-948D-5C0E540E2B8E}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3464,7 +3446,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3571,13 +3553,13 @@
         <v>11831</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="H4" s="7">
         <v>2</v>
@@ -3586,13 +3568,13 @@
         <v>903</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="M4" s="7">
         <v>16</v>
@@ -3601,13 +3583,13 @@
         <v>12734</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3622,13 +3604,13 @@
         <v>242880</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="H5" s="7">
         <v>121</v>
@@ -3637,10 +3619,10 @@
         <v>73516</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>24</v>
@@ -3652,13 +3634,13 @@
         <v>316396</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3726,13 +3708,13 @@
         <v>11981</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>203</v>
+        <v>35</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>204</v>
+        <v>98</v>
       </c>
       <c r="H7" s="7">
         <v>11</v>
@@ -3741,13 +3723,13 @@
         <v>10227</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>31</v>
+        <v>210</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="M7" s="7">
         <v>23</v>
@@ -3756,13 +3738,13 @@
         <v>22208</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3777,13 +3759,13 @@
         <v>991726</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>211</v>
+        <v>105</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>212</v>
+        <v>45</v>
       </c>
       <c r="H8" s="7">
         <v>706</v>
@@ -3792,13 +3774,13 @@
         <v>644968</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>39</v>
+        <v>218</v>
       </c>
       <c r="M8" s="7">
         <v>1610</v>
@@ -3807,13 +3789,13 @@
         <v>1636694</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3869,7 +3851,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -3881,13 +3863,13 @@
         <v>6609</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>219</v>
+        <v>168</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="H10" s="7">
         <v>7</v>
@@ -3896,13 +3878,13 @@
         <v>3831</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>222</v>
+        <v>38</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>223</v>
+        <v>100</v>
       </c>
       <c r="M10" s="7">
         <v>16</v>
@@ -3911,13 +3893,13 @@
         <v>10440</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3932,13 +3914,13 @@
         <v>343977</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>229</v>
+        <v>176</v>
       </c>
       <c r="H11" s="7">
         <v>351</v>
@@ -3950,10 +3932,10 @@
         <v>230</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>231</v>
+        <v>106</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>232</v>
+        <v>48</v>
       </c>
       <c r="M11" s="7">
         <v>689</v>
@@ -3962,13 +3944,13 @@
         <v>601029</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>233</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4036,13 +4018,13 @@
         <v>30421</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="H13" s="7">
         <v>20</v>
@@ -4051,13 +4033,13 @@
         <v>14961</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="M13" s="7">
         <v>55</v>
@@ -4066,13 +4048,13 @@
         <v>45382</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>240</v>
+        <v>152</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4087,13 +4069,13 @@
         <v>1578583</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="H14" s="7">
         <v>1178</v>
@@ -4102,13 +4084,13 @@
         <v>975536</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="M14" s="7">
         <v>2720</v>
@@ -4117,13 +4099,13 @@
         <v>2554120</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>247</v>
+        <v>159</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4179,7 +4161,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P32B-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P32B-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3048EFA7-C300-48C1-992A-7816989BE129}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E64098E6-8C52-431B-8D72-1E7BECEA54A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{89274947-80DF-4302-B2E9-BEC0E5D457F0}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{F3DC5287-35F1-4737-A001-5F450BC0F5BE}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="250">
   <si>
     <t>Población según si se han sentido mal o culpables por su forma de beber en 2007 (Tasa respuesta: 41,76%)</t>
   </si>
@@ -77,694 +77,718 @@
     <t>1,38%</t>
   </si>
   <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>98,62%</t>
+  </si>
+  <si>
+    <t>96,84%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>97,69%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
+  </si>
+  <si>
+    <t>98,58%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>98,63%</t>
+  </si>
+  <si>
+    <t>97,35%</t>
+  </si>
+  <si>
+    <t>99,41%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>97,92%</t>
+  </si>
+  <si>
+    <t>98,95%</t>
+  </si>
+  <si>
+    <t>96,3%</t>
+  </si>
+  <si>
+    <t>99,35%</t>
+  </si>
+  <si>
+    <t>98,15%</t>
+  </si>
+  <si>
+    <t>99,81%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
     <t>0,58%</t>
   </si>
   <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>98,62%</t>
-  </si>
-  <si>
-    <t>96,94%</t>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
   </si>
   <si>
     <t>99,42%</t>
   </si>
   <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>97,65%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si se han sentido mal o culpables por su forma de beber en 2012 (Tasa respuesta: 44,32%)</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>97,41%</t>
+  </si>
+  <si>
+    <t>95,32%</t>
+  </si>
+  <si>
+    <t>98,64%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>96,39%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>96,96%</t>
+  </si>
+  <si>
+    <t>95,89%</t>
+  </si>
+  <si>
+    <t>97,8%</t>
+  </si>
+  <si>
+    <t>97,71%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>97,62%</t>
+  </si>
+  <si>
+    <t>96,89%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>97,3%</t>
+  </si>
+  <si>
+    <t>94,37%</t>
+  </si>
+  <si>
+    <t>98,78%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>96,77%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>97,13%</t>
+  </si>
+  <si>
+    <t>96,24%</t>
+  </si>
+  <si>
+    <t>97,83%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>97,87%</t>
+  </si>
+  <si>
+    <t>97,27%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
+  </si>
+  <si>
+    <t>Población según si se han sentido mal o culpables por su forma de beber en 2016 (Tasa respuesta: 45,5%)</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>97,2%</t>
+  </si>
+  <si>
+    <t>94,79%</t>
+  </si>
+  <si>
+    <t>95,87%</t>
+  </si>
+  <si>
+    <t>97,75%</t>
+  </si>
+  <si>
+    <t>95,83%</t>
+  </si>
+  <si>
+    <t>98,88%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>98,06%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
+  </si>
+  <si>
+    <t>97,96%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>98,38%</t>
+  </si>
+  <si>
+    <t>97,68%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>95,58%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
+  </si>
+  <si>
+    <t>97,1%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>97,05%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
   </si>
   <si>
     <t>0,57%</t>
   </si>
   <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>99,3%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>98,63%</t>
-  </si>
-  <si>
-    <t>97,32%</t>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>97,88%</t>
+  </si>
+  <si>
+    <t>97,11%</t>
+  </si>
+  <si>
+    <t>98,5%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
   </si>
   <si>
     <t>99,43%</t>
   </si>
   <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
-  </si>
-  <si>
-    <t>98,95%</t>
-  </si>
-  <si>
-    <t>96,28%</t>
-  </si>
-  <si>
-    <t>99,35%</t>
-  </si>
-  <si>
-    <t>98,17%</t>
-  </si>
-  <si>
-    <t>99,81%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
-  </si>
-  <si>
-    <t>99,52%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>99,11%</t>
-  </si>
-  <si>
-    <t>98,69%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si se han sentido mal o culpables por su forma de beber en 2012 (Tasa respuesta: 44,32%)</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
-  </si>
-  <si>
-    <t>95,1%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
-  </si>
-  <si>
-    <t>96,41%</t>
-  </si>
-  <si>
-    <t>99,02%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
+    <t>98,28%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>98,68%</t>
+  </si>
+  <si>
+    <t>Población según si se han sentido mal o culpables por su forma de beber en 2023 (Tasa respuesta: 31,88%)</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>95,36%</t>
+  </si>
+  <si>
+    <t>91,3%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>95,94%</t>
+  </si>
+  <si>
+    <t>96,13%</t>
+  </si>
+  <si>
+    <t>93,5%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
+  </si>
+  <si>
+    <t>98,44%</t>
+  </si>
+  <si>
+    <t>96,54%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
+  </si>
+  <si>
+    <t>98,66%</t>
+  </si>
+  <si>
+    <t>97,74%</t>
+  </si>
+  <si>
+    <t>99,2%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>98,11%</t>
+  </si>
+  <si>
+    <t>95,88%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>98,53%</t>
+  </si>
+  <si>
+    <t>96,83%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
   </si>
   <si>
     <t>1,75%</t>
   </si>
   <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>96,96%</t>
-  </si>
-  <si>
-    <t>95,89%</t>
-  </si>
-  <si>
-    <t>97,76%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>97,62%</t>
-  </si>
-  <si>
-    <t>96,83%</t>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>97,25%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
   </si>
   <si>
     <t>98,25%</t>
   </si>
   <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>97,3%</t>
-  </si>
-  <si>
-    <t>94,41%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>99,39%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>97,13%</t>
-  </si>
-  <si>
-    <t>96,34%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
-  </si>
-  <si>
-    <t>98,51%</t>
-  </si>
-  <si>
-    <t>99,7%</t>
-  </si>
-  <si>
-    <t>97,87%</t>
-  </si>
-  <si>
-    <t>97,29%</t>
-  </si>
-  <si>
-    <t>98,38%</t>
-  </si>
-  <si>
-    <t>Población según si se han sentido mal o culpables por su forma de beber en 2015 (Tasa respuesta: 45,5%)</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>97,2%</t>
-  </si>
-  <si>
-    <t>94,75%</t>
-  </si>
-  <si>
-    <t>95,87%</t>
-  </si>
-  <si>
-    <t>97,75%</t>
-  </si>
-  <si>
-    <t>95,99%</t>
-  </si>
-  <si>
-    <t>98,93%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>98,06%</t>
-  </si>
-  <si>
-    <t>97,19%</t>
+    <t>97,59%</t>
   </si>
   <si>
     <t>98,74%</t>
-  </si>
-  <si>
-    <t>97,98%</t>
-  </si>
-  <si>
-    <t>97,73%</t>
-  </si>
-  <si>
-    <t>98,9%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>97,92%</t>
-  </si>
-  <si>
-    <t>95,74%</t>
-  </si>
-  <si>
-    <t>97,12%</t>
-  </si>
-  <si>
-    <t>99,68%</t>
-  </si>
-  <si>
-    <t>98,37%</t>
-  </si>
-  <si>
-    <t>97,07%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>97,88%</t>
-  </si>
-  <si>
-    <t>97,06%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
-  </si>
-  <si>
-    <t>98,97%</t>
-  </si>
-  <si>
-    <t>98,28%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>97,77%</t>
-  </si>
-  <si>
-    <t>Población según si se han sentido mal o culpables por su forma de beber en 2023 (Tasa respuesta: 31,88%)</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>95,36%</t>
-  </si>
-  <si>
-    <t>91,3%</t>
-  </si>
-  <si>
-    <t>97,35%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>95,94%</t>
-  </si>
-  <si>
-    <t>96,13%</t>
-  </si>
-  <si>
-    <t>93,5%</t>
-  </si>
-  <si>
-    <t>97,69%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>96,54%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
-  </si>
-  <si>
-    <t>98,66%</t>
-  </si>
-  <si>
-    <t>97,74%</t>
-  </si>
-  <si>
-    <t>99,2%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>98,11%</t>
-  </si>
-  <si>
-    <t>95,88%</t>
-  </si>
-  <si>
-    <t>98,53%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
-  </si>
-  <si>
-    <t>97,05%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>97,25%</t>
-  </si>
-  <si>
-    <t>98,76%</t>
-  </si>
-  <si>
-    <t>98,49%</t>
-  </si>
-  <si>
-    <t>97,59%</t>
   </si>
 </sst>
 </file>
@@ -1176,7 +1200,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64386FDB-471A-4C25-ADEF-8B250A364ED1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7205793-FD04-4DEF-A6DD-64136B253AD2}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1798,10 +1822,10 @@
         <v>70</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>35</v>
+        <v>71</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1849,10 +1873,10 @@
         <v>78</v>
       </c>
       <c r="P14" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1927,7 +1951,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED80CCB9-AE88-4A96-84C0-DF9D4504B49A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D13B198-5074-4733-8BC8-71405B0022ED}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2072,7 +2096,7 @@
         <v>14</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>19</v>
+        <v>82</v>
       </c>
       <c r="M4" s="7">
         <v>11</v>
@@ -2120,7 +2144,7 @@
         <v>57</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>28</v>
+        <v>88</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>24</v>
@@ -2227,7 +2251,7 @@
         <v>97</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="M7" s="7">
         <v>44</v>
@@ -2236,13 +2260,13 @@
         <v>42622</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2257,13 +2281,13 @@
         <v>1162375</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H8" s="7">
         <v>542</v>
@@ -2275,10 +2299,10 @@
         <v>59</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="M8" s="7">
         <v>1635</v>
@@ -2287,13 +2311,13 @@
         <v>1750093</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2361,13 +2385,13 @@
         <v>8817</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -2382,7 +2406,7 @@
         <v>15</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>111</v>
+        <v>86</v>
       </c>
       <c r="M10" s="7">
         <v>7</v>
@@ -2391,13 +2415,13 @@
         <v>8817</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2412,13 +2436,13 @@
         <v>317379</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H11" s="7">
         <v>202</v>
@@ -2430,7 +2454,7 @@
         <v>24</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>118</v>
+        <v>93</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>26</v>
@@ -2519,10 +2543,10 @@
         <v>122</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>51</v>
+        <v>123</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H13" s="7">
         <v>7</v>
@@ -2531,13 +2555,13 @@
         <v>7207</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>125</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>126</v>
+        <v>34</v>
       </c>
       <c r="M13" s="7">
         <v>62</v>
@@ -2546,13 +2570,13 @@
         <v>65668</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2567,28 +2591,28 @@
         <v>1978120</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>58</v>
       </c>
       <c r="H14" s="7">
         <v>956</v>
       </c>
       <c r="I14" s="7">
-        <v>1041529</v>
+        <v>1041530</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>134</v>
       </c>
       <c r="M14" s="7">
         <v>2816</v>
@@ -2597,13 +2621,13 @@
         <v>3019650</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2630,7 +2654,7 @@
         <v>963</v>
       </c>
       <c r="I15" s="7">
-        <v>1048736</v>
+        <v>1048737</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>26</v>
@@ -2678,7 +2702,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F3C34F5-762A-4505-82D7-984B48CB1894}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D0FE55E-9F8C-4AAF-923D-05E7D86A71C9}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2695,7 +2719,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2802,13 +2826,13 @@
         <v>10037</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>109</v>
+        <v>83</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -2823,7 +2847,7 @@
         <v>14</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="M4" s="7">
         <v>10</v>
@@ -2832,13 +2856,13 @@
         <v>11141</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2853,13 +2877,13 @@
         <v>348985</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>117</v>
+        <v>90</v>
       </c>
       <c r="H5" s="7">
         <v>126</v>
@@ -2871,7 +2895,7 @@
         <v>72</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>24</v>
@@ -2883,13 +2907,13 @@
         <v>483071</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2957,13 +2981,13 @@
         <v>24338</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>153</v>
       </c>
       <c r="H7" s="7">
         <v>8</v>
@@ -2972,10 +2996,10 @@
         <v>7782</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>50</v>
+        <v>153</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>154</v>
@@ -2987,13 +3011,13 @@
         <v>32120</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>128</v>
+        <v>155</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3008,13 +3032,13 @@
         <v>1231012</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="H8" s="7">
         <v>692</v>
@@ -3023,13 +3047,13 @@
         <v>719116</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>57</v>
+        <v>163</v>
       </c>
       <c r="M8" s="7">
         <v>1851</v>
@@ -3038,13 +3062,13 @@
         <v>1950128</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>137</v>
+        <v>164</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3112,13 +3136,13 @@
         <v>7860</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>163</v>
+        <v>51</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>70</v>
+        <v>167</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="H10" s="7">
         <v>3</v>
@@ -3130,10 +3154,10 @@
         <v>17</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="M10" s="7">
         <v>10</v>
@@ -3142,13 +3166,13 @@
         <v>10730</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>167</v>
+        <v>127</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3160,16 +3184,16 @@
         <v>338</v>
       </c>
       <c r="D11" s="7">
-        <v>369662</v>
+        <v>369663</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>170</v>
+        <v>58</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>78</v>
+        <v>174</v>
       </c>
       <c r="H11" s="7">
         <v>262</v>
@@ -3181,10 +3205,10 @@
         <v>27</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="M11" s="7">
         <v>600</v>
@@ -3193,13 +3217,13 @@
         <v>647409</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>174</v>
+        <v>135</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3211,7 +3235,7 @@
         <v>345</v>
       </c>
       <c r="D12" s="7">
-        <v>377522</v>
+        <v>377523</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>26</v>
@@ -3267,13 +3291,13 @@
         <v>42235</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="H13" s="7">
         <v>12</v>
@@ -3282,13 +3306,13 @@
         <v>11756</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="M13" s="7">
         <v>51</v>
@@ -3297,13 +3321,13 @@
         <v>53991</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>33</v>
+        <v>186</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3318,13 +3342,13 @@
         <v>1949660</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="H14" s="7">
         <v>1080</v>
@@ -3333,13 +3357,13 @@
         <v>1130948</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="M14" s="7">
         <v>2926</v>
@@ -3348,13 +3372,13 @@
         <v>3080608</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>41</v>
+        <v>196</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3429,7 +3453,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7EA561D-7E94-476B-948D-5C0E540E2B8E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46D34F27-96AD-4D26-843B-7E926A10D7A4}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3446,7 +3470,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3553,13 +3577,13 @@
         <v>11831</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>193</v>
+        <v>36</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="H4" s="7">
         <v>2</v>
@@ -3568,13 +3592,13 @@
         <v>903</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="M4" s="7">
         <v>16</v>
@@ -3583,13 +3607,13 @@
         <v>12734</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>198</v>
+        <v>19</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3604,13 +3628,13 @@
         <v>242880</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>202</v>
+        <v>44</v>
       </c>
       <c r="H5" s="7">
         <v>121</v>
@@ -3619,10 +3643,10 @@
         <v>73516</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>24</v>
@@ -3634,13 +3658,13 @@
         <v>316396</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>207</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3708,13 +3732,13 @@
         <v>11981</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>35</v>
+        <v>183</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H7" s="7">
         <v>11</v>
@@ -3723,13 +3747,13 @@
         <v>10227</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="M7" s="7">
         <v>23</v>
@@ -3738,13 +3762,13 @@
         <v>22208</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3759,13 +3783,13 @@
         <v>991726</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>45</v>
+        <v>193</v>
       </c>
       <c r="H8" s="7">
         <v>706</v>
@@ -3774,13 +3798,13 @@
         <v>644968</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="M8" s="7">
         <v>1610</v>
@@ -3789,13 +3813,13 @@
         <v>1636694</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3863,13 +3887,13 @@
         <v>6609</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>168</v>
+        <v>225</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="H10" s="7">
         <v>7</v>
@@ -3878,13 +3902,13 @@
         <v>3831</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>38</v>
+        <v>153</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>100</v>
+        <v>228</v>
       </c>
       <c r="M10" s="7">
         <v>16</v>
@@ -3893,13 +3917,13 @@
         <v>10440</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>227</v>
+        <v>172</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3914,13 +3938,13 @@
         <v>343977</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>176</v>
+        <v>233</v>
       </c>
       <c r="H11" s="7">
         <v>351</v>
@@ -3929,13 +3953,13 @@
         <v>257052</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>106</v>
+        <v>235</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>48</v>
+        <v>163</v>
       </c>
       <c r="M11" s="7">
         <v>689</v>
@@ -3944,13 +3968,13 @@
         <v>601029</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>232</v>
+        <v>177</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4018,13 +4042,13 @@
         <v>30421</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="H13" s="7">
         <v>20</v>
@@ -4033,13 +4057,13 @@
         <v>14961</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>168</v>
+        <v>225</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="M13" s="7">
         <v>55</v>
@@ -4048,13 +4072,13 @@
         <v>45382</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>99</v>
+        <v>241</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>152</v>
+        <v>242</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4069,13 +4093,13 @@
         <v>1578583</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="H14" s="7">
         <v>1178</v>
@@ -4084,13 +4108,13 @@
         <v>975536</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>176</v>
+        <v>233</v>
       </c>
       <c r="M14" s="7">
         <v>2720</v>
@@ -4099,13 +4123,13 @@
         <v>2554120</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>107</v>
+        <v>247</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>159</v>
+        <v>249</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P32B-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P32B-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E64098E6-8C52-431B-8D72-1E7BECEA54A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{92828BC2-061C-4010-9867-BDBA80911B12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{F3DC5287-35F1-4737-A001-5F450BC0F5BE}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{649708C9-2645-4F22-96ED-0B3578328406}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="248">
   <si>
     <t>Población según si se han sentido mal o culpables por su forma de beber en 2007 (Tasa respuesta: 41,76%)</t>
   </si>
@@ -71,724 +71,718 @@
     <t>Primarios</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>1,38%</t>
   </si>
   <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>98,62%</t>
+  </si>
+  <si>
+    <t>96,96%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>97,71%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>98,63%</t>
+  </si>
+  <si>
+    <t>97,2%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>98,52%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>98,95%</t>
+  </si>
+  <si>
+    <t>96,34%</t>
+  </si>
+  <si>
+    <t>99,35%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>99,81%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>98,03%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si se han sentido mal o culpables por su forma de beber en 2012 (Tasa respuesta: 44,32%)</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>97,41%</t>
+  </si>
+  <si>
+    <t>95,09%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>97,54%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>98,94%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>95,78%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>97,88%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
+  </si>
+  <si>
+    <t>97,62%</t>
+  </si>
+  <si>
+    <t>96,87%</t>
+  </si>
+  <si>
+    <t>98,25%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>97,3%</t>
+  </si>
+  <si>
+    <t>94,39%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>96,61%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>97,13%</t>
+  </si>
+  <si>
+    <t>96,12%</t>
+  </si>
+  <si>
+    <t>97,82%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>98,59%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
+  </si>
+  <si>
+    <t>97,87%</t>
+  </si>
+  <si>
+    <t>97,28%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
+  </si>
+  <si>
+    <t>Población según si se han sentido mal o culpables por su forma de beber en 2016 (Tasa respuesta: 45,5%)</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>94,78%</t>
+  </si>
+  <si>
+    <t>96,37%</t>
+  </si>
+  <si>
+    <t>97,75%</t>
+  </si>
+  <si>
+    <t>96,04%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>98,06%</t>
+  </si>
+  <si>
+    <t>97,11%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>98,38%</t>
+  </si>
+  <si>
+    <t>97,63%</t>
+  </si>
+  <si>
+    <t>98,87%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>97,92%</t>
+  </si>
+  <si>
+    <t>95,51%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
+  </si>
+  <si>
+    <t>97,19%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
+  </si>
+  <si>
+    <t>96,93%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>97,12%</t>
+  </si>
+  <si>
+    <t>98,47%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
+  </si>
+  <si>
+    <t>98,28%</t>
+  </si>
+  <si>
+    <t>97,78%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
+  </si>
+  <si>
+    <t>Población según si se han sentido mal o culpables por su forma de beber en 2023 (Tasa respuesta: 31,88%)</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>95,36%</t>
+  </si>
+  <si>
+    <t>92,41%</t>
+  </si>
+  <si>
+    <t>97,33%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>95,71%</t>
+  </si>
+  <si>
+    <t>96,13%</t>
+  </si>
+  <si>
+    <t>93,66%</t>
+  </si>
+  <si>
+    <t>97,77%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
+  </si>
+  <si>
+    <t>97,81%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>98,44%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
+  </si>
+  <si>
+    <t>98,66%</t>
+  </si>
+  <si>
+    <t>97,8%</t>
+  </si>
+  <si>
+    <t>99,24%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
     <t>0,56%</t>
   </si>
   <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>98,62%</t>
-  </si>
-  <si>
-    <t>96,84%</t>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>98,11%</t>
+  </si>
+  <si>
+    <t>95,99%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>98,53%</t>
+  </si>
+  <si>
+    <t>96,74%</t>
   </si>
   <si>
     <t>99,44%</t>
   </si>
   <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>97,69%</t>
-  </si>
-  <si>
-    <t>99,56%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>99,3%</t>
-  </si>
-  <si>
-    <t>98,58%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>98,63%</t>
-  </si>
-  <si>
-    <t>97,35%</t>
-  </si>
-  <si>
-    <t>99,41%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>99,46%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
-  </si>
-  <si>
-    <t>97,92%</t>
-  </si>
-  <si>
-    <t>98,95%</t>
-  </si>
-  <si>
-    <t>96,3%</t>
-  </si>
-  <si>
-    <t>99,35%</t>
-  </si>
-  <si>
-    <t>98,15%</t>
-  </si>
-  <si>
-    <t>99,81%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>98,69%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>99,51%</t>
-  </si>
-  <si>
-    <t>99,11%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si se han sentido mal o culpables por su forma de beber en 2012 (Tasa respuesta: 44,32%)</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
-  </si>
-  <si>
-    <t>95,32%</t>
-  </si>
-  <si>
-    <t>98,64%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
-  </si>
-  <si>
-    <t>96,39%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>96,96%</t>
-  </si>
-  <si>
-    <t>95,89%</t>
-  </si>
-  <si>
-    <t>97,8%</t>
-  </si>
-  <si>
-    <t>97,71%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>97,62%</t>
-  </si>
-  <si>
-    <t>96,89%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>97,3%</t>
-  </si>
-  <si>
-    <t>94,37%</t>
-  </si>
-  <si>
-    <t>98,78%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
-  </si>
-  <si>
-    <t>96,77%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>97,13%</t>
-  </si>
-  <si>
-    <t>96,24%</t>
-  </si>
-  <si>
-    <t>97,83%</t>
-  </si>
-  <si>
-    <t>99,71%</t>
-  </si>
-  <si>
-    <t>97,87%</t>
-  </si>
-  <si>
-    <t>97,27%</t>
-  </si>
-  <si>
-    <t>98,37%</t>
-  </si>
-  <si>
-    <t>Población según si se han sentido mal o culpables por su forma de beber en 2016 (Tasa respuesta: 45,5%)</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>97,2%</t>
-  </si>
-  <si>
-    <t>94,79%</t>
-  </si>
-  <si>
-    <t>95,87%</t>
-  </si>
-  <si>
-    <t>97,75%</t>
-  </si>
-  <si>
-    <t>95,83%</t>
-  </si>
-  <si>
-    <t>98,88%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>98,06%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>98,93%</t>
-  </si>
-  <si>
-    <t>97,96%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>98,38%</t>
-  </si>
-  <si>
-    <t>97,68%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>95,58%</t>
-  </si>
-  <si>
-    <t>99,02%</t>
-  </si>
-  <si>
-    <t>97,1%</t>
-  </si>
-  <si>
-    <t>99,67%</t>
-  </si>
-  <si>
-    <t>97,05%</t>
-  </si>
-  <si>
-    <t>99,26%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>97,88%</t>
-  </si>
-  <si>
-    <t>97,11%</t>
-  </si>
-  <si>
-    <t>98,5%</t>
-  </si>
-  <si>
-    <t>98,97%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>98,28%</t>
-  </si>
-  <si>
-    <t>97,72%</t>
-  </si>
-  <si>
-    <t>98,68%</t>
-  </si>
-  <si>
-    <t>Población según si se han sentido mal o culpables por su forma de beber en 2023 (Tasa respuesta: 31,88%)</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>95,36%</t>
-  </si>
-  <si>
-    <t>91,3%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>95,94%</t>
-  </si>
-  <si>
-    <t>96,13%</t>
-  </si>
-  <si>
-    <t>93,5%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>96,54%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
-  </si>
-  <si>
-    <t>98,66%</t>
-  </si>
-  <si>
-    <t>97,74%</t>
-  </si>
-  <si>
-    <t>99,2%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>98,11%</t>
-  </si>
-  <si>
-    <t>95,88%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>98,53%</t>
-  </si>
-  <si>
-    <t>96,83%</t>
-  </si>
-  <si>
     <t>98,29%</t>
   </si>
   <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
+    <t>97,04%</t>
+  </si>
+  <si>
+    <t>99,04%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
   </si>
   <si>
     <t>2,75%</t>
   </si>
   <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
+  </si>
+  <si>
+    <t>98,74%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
   </si>
   <si>
     <t>97,25%</t>
   </si>
   <si>
-    <t>98,76%</t>
-  </si>
-  <si>
-    <t>98,49%</t>
-  </si>
-  <si>
-    <t>98,25%</t>
-  </si>
-  <si>
-    <t>97,59%</t>
-  </si>
-  <si>
-    <t>98,74%</t>
+    <t>97,56%</t>
+  </si>
+  <si>
+    <t>98,75%</t>
   </si>
 </sst>
 </file>
@@ -1200,7 +1194,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7205793-FD04-4DEF-A6DD-64136B253AD2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AE4834A-62CF-44AE-ACD1-F628A23C2993}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1485,7 +1479,7 @@
         <v>32</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="H7" s="7">
         <v>7</v>
@@ -1494,13 +1488,13 @@
         <v>7283</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>35</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>36</v>
       </c>
       <c r="M7" s="7">
         <v>15</v>
@@ -1509,13 +1503,13 @@
         <v>14655</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1530,13 +1524,13 @@
         <v>1051046</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>40</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>42</v>
       </c>
       <c r="H8" s="7">
         <v>516</v>
@@ -1545,13 +1539,13 @@
         <v>525571</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>43</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>45</v>
       </c>
       <c r="M8" s="7">
         <v>1542</v>
@@ -1560,13 +1554,13 @@
         <v>1576617</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>46</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1622,7 +1616,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1634,13 +1628,13 @@
         <v>1466</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>14</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="H10" s="7">
         <v>2</v>
@@ -1649,13 +1643,13 @@
         <v>2048</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="M10" s="7">
         <v>3</v>
@@ -1664,13 +1658,13 @@
         <v>3514</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1685,10 +1679,10 @@
         <v>349041</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>58</v>
+        <v>28</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>24</v>
@@ -1700,10 +1694,10 @@
         <v>192084</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>24</v>
@@ -1715,13 +1709,13 @@
         <v>541125</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1789,13 +1783,13 @@
         <v>15343</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="H13" s="7">
         <v>9</v>
@@ -1804,13 +1798,13 @@
         <v>9331</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="M13" s="7">
         <v>24</v>
@@ -1819,13 +1813,13 @@
         <v>24674</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>71</v>
+        <v>34</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1840,13 +1834,13 @@
         <v>1864575</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="H14" s="7">
         <v>865</v>
@@ -1855,13 +1849,13 @@
         <v>885189</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="M14" s="7">
         <v>2695</v>
@@ -1870,13 +1864,13 @@
         <v>2749765</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>79</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1932,7 +1926,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -1951,7 +1945,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D13B198-5074-4733-8BC8-71405B0022ED}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEA9196A-3E3A-476B-9505-31DC08A4F785}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1968,7 +1962,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2075,13 +2069,13 @@
         <v>13252</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -2090,13 +2084,13 @@
         <v>978</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="M4" s="7">
         <v>11</v>
@@ -2105,13 +2099,13 @@
         <v>14230</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>87</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2126,13 +2120,13 @@
         <v>498366</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="H5" s="7">
         <v>212</v>
@@ -2141,10 +2135,10 @@
         <v>229204</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>24</v>
@@ -2156,13 +2150,13 @@
         <v>727570</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>92</v>
+        <v>56</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2230,13 +2224,13 @@
         <v>36393</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>94</v>
+        <v>13</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="H7" s="7">
         <v>6</v>
@@ -2245,13 +2239,13 @@
         <v>6229</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="M7" s="7">
         <v>44</v>
@@ -2260,13 +2254,13 @@
         <v>42622</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2281,13 +2275,13 @@
         <v>1162375</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>102</v>
+        <v>22</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="H8" s="7">
         <v>542</v>
@@ -2296,13 +2290,13 @@
         <v>587719</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="M8" s="7">
         <v>1635</v>
@@ -2311,13 +2305,13 @@
         <v>1750093</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2373,7 +2367,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2385,13 +2379,13 @@
         <v>8817</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>111</v>
+        <v>16</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -2406,7 +2400,7 @@
         <v>15</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>86</v>
+        <v>106</v>
       </c>
       <c r="M10" s="7">
         <v>7</v>
@@ -2415,13 +2409,13 @@
         <v>8817</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>114</v>
+        <v>34</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2436,13 +2430,13 @@
         <v>317379</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>118</v>
+        <v>25</v>
       </c>
       <c r="H11" s="7">
         <v>202</v>
@@ -2454,7 +2448,7 @@
         <v>24</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>26</v>
@@ -2466,13 +2460,13 @@
         <v>541986</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>121</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2540,13 +2534,13 @@
         <v>58462</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="H13" s="7">
         <v>7</v>
@@ -2555,13 +2549,13 @@
         <v>7207</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>34</v>
+        <v>119</v>
       </c>
       <c r="M13" s="7">
         <v>62</v>
@@ -2570,13 +2564,13 @@
         <v>65668</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2591,13 +2585,13 @@
         <v>1978120</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="H14" s="7">
         <v>956</v>
@@ -2606,13 +2600,13 @@
         <v>1041530</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>43</v>
+        <v>127</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="M14" s="7">
         <v>2816</v>
@@ -2621,13 +2615,13 @@
         <v>3019650</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2683,7 +2677,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -2702,7 +2696,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D0FE55E-9F8C-4AAF-923D-05E7D86A71C9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A928DB40-E27D-4A85-B843-1ED20E32C1C0}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2719,7 +2713,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2826,13 +2820,13 @@
         <v>10037</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>137</v>
+        <v>35</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>83</v>
+        <v>33</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -2841,13 +2835,13 @@
         <v>1104</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="M4" s="7">
         <v>10</v>
@@ -2856,13 +2850,13 @@
         <v>11141</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2877,13 +2871,13 @@
         <v>348985</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>143</v>
+        <v>42</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>90</v>
+        <v>41</v>
       </c>
       <c r="H5" s="7">
         <v>126</v>
@@ -2892,10 +2886,10 @@
         <v>134086</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>24</v>
@@ -2907,13 +2901,13 @@
         <v>483071</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2981,13 +2975,13 @@
         <v>24338</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>150</v>
+        <v>62</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="H7" s="7">
         <v>8</v>
@@ -2996,13 +2990,13 @@
         <v>7782</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>153</v>
+        <v>37</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="M7" s="7">
         <v>31</v>
@@ -3011,13 +3005,13 @@
         <v>32120</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3032,13 +3026,13 @@
         <v>1231012</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>160</v>
+        <v>69</v>
       </c>
       <c r="H8" s="7">
         <v>692</v>
@@ -3047,13 +3041,13 @@
         <v>719116</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>161</v>
+        <v>142</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>163</v>
+        <v>46</v>
       </c>
       <c r="M8" s="7">
         <v>1851</v>
@@ -3062,13 +3056,13 @@
         <v>1950128</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3124,7 +3118,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -3136,13 +3130,13 @@
         <v>7860</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>51</v>
+        <v>155</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="H10" s="7">
         <v>3</v>
@@ -3154,10 +3148,10 @@
         <v>17</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="M10" s="7">
         <v>10</v>
@@ -3166,13 +3160,13 @@
         <v>10730</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>127</v>
+        <v>160</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3184,16 +3178,16 @@
         <v>338</v>
       </c>
       <c r="D11" s="7">
-        <v>369663</v>
+        <v>369662</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>58</v>
+        <v>163</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="H11" s="7">
         <v>262</v>
@@ -3205,10 +3199,10 @@
         <v>27</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="M11" s="7">
         <v>600</v>
@@ -3217,13 +3211,13 @@
         <v>647409</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>135</v>
+        <v>168</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3235,7 +3229,7 @@
         <v>345</v>
       </c>
       <c r="D12" s="7">
-        <v>377523</v>
+        <v>377522</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>26</v>
@@ -3291,13 +3285,13 @@
         <v>42235</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>179</v>
+        <v>93</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="H13" s="7">
         <v>12</v>
@@ -3306,13 +3300,13 @@
         <v>11756</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>183</v>
+        <v>64</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="M13" s="7">
         <v>51</v>
@@ -3321,13 +3315,13 @@
         <v>53991</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3342,13 +3336,13 @@
         <v>1949660</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>188</v>
+        <v>99</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="H14" s="7">
         <v>1080</v>
@@ -3357,13 +3351,13 @@
         <v>1130948</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>193</v>
+        <v>73</v>
       </c>
       <c r="M14" s="7">
         <v>2926</v>
@@ -3372,13 +3366,13 @@
         <v>3080608</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3434,7 +3428,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -3453,7 +3447,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46D34F27-96AD-4D26-843B-7E926A10D7A4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1A8D7B7-6AEA-4A73-AE25-C2000C03F029}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3470,7 +3464,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3577,13 +3571,13 @@
         <v>11831</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>36</v>
+        <v>187</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="H4" s="7">
         <v>2</v>
@@ -3592,13 +3586,13 @@
         <v>903</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="M4" s="7">
         <v>16</v>
@@ -3607,13 +3601,13 @@
         <v>12734</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>19</v>
+        <v>192</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3628,13 +3622,13 @@
         <v>242880</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>44</v>
+        <v>196</v>
       </c>
       <c r="H5" s="7">
         <v>121</v>
@@ -3643,10 +3637,10 @@
         <v>73516</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>24</v>
@@ -3658,13 +3652,13 @@
         <v>316396</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>28</v>
+        <v>201</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3732,13 +3726,13 @@
         <v>11981</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>183</v>
+        <v>203</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>99</v>
+        <v>204</v>
       </c>
       <c r="H7" s="7">
         <v>11</v>
@@ -3747,13 +3741,13 @@
         <v>10227</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>212</v>
+        <v>31</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="M7" s="7">
         <v>23</v>
@@ -3762,13 +3756,13 @@
         <v>22208</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3783,13 +3777,13 @@
         <v>991726</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>107</v>
+        <v>211</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>193</v>
+        <v>212</v>
       </c>
       <c r="H8" s="7">
         <v>706</v>
@@ -3798,13 +3792,13 @@
         <v>644968</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>220</v>
+        <v>39</v>
       </c>
       <c r="M8" s="7">
         <v>1610</v>
@@ -3813,13 +3807,13 @@
         <v>1636694</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3875,7 +3869,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -3887,13 +3881,13 @@
         <v>6609</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="H10" s="7">
         <v>7</v>
@@ -3902,13 +3896,13 @@
         <v>3831</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>153</v>
+        <v>222</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="M10" s="7">
         <v>16</v>
@@ -3917,13 +3911,13 @@
         <v>10440</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>172</v>
+        <v>226</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3938,13 +3932,13 @@
         <v>343977</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="H11" s="7">
         <v>351</v>
@@ -3953,13 +3947,13 @@
         <v>257052</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>163</v>
+        <v>232</v>
       </c>
       <c r="M11" s="7">
         <v>689</v>
@@ -3968,13 +3962,13 @@
         <v>601029</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>177</v>
+        <v>234</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4042,13 +4036,13 @@
         <v>30421</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="H13" s="7">
         <v>20</v>
@@ -4057,10 +4051,10 @@
         <v>14961</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>225</v>
+        <v>161</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>239</v>
@@ -4072,13 +4066,13 @@
         <v>45382</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>241</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4093,13 +4087,13 @@
         <v>1578583</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="H14" s="7">
         <v>1178</v>
@@ -4108,13 +4102,13 @@
         <v>975536</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>233</v>
+        <v>170</v>
       </c>
       <c r="M14" s="7">
         <v>2720</v>
@@ -4123,13 +4117,13 @@
         <v>2554120</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>247</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4185,7 +4179,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P32B-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P32B-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{92828BC2-061C-4010-9867-BDBA80911B12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B64942CE-9828-451E-AF8D-B924EF1B020C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{649708C9-2645-4F22-96ED-0B3578328406}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{C0080826-2423-49DC-B783-50B7EFBFC27B}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="240">
   <si>
     <t>Población según si se han sentido mal o culpables por su forma de beber en 2007 (Tasa respuesta: 41,76%)</t>
   </si>
@@ -599,190 +599,166 @@
     <t>Población según si se han sentido mal o culpables por su forma de beber en 2023 (Tasa respuesta: 31,88%)</t>
   </si>
   <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>95,36%</t>
-  </si>
-  <si>
-    <t>92,41%</t>
-  </si>
-  <si>
-    <t>97,33%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>95,71%</t>
-  </si>
-  <si>
-    <t>96,13%</t>
-  </si>
-  <si>
-    <t>93,66%</t>
-  </si>
-  <si>
-    <t>97,77%</t>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>95,06%</t>
+  </si>
+  <si>
+    <t>91,27%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>95,53%</t>
+  </si>
+  <si>
+    <t>95,86%</t>
+  </si>
+  <si>
+    <t>92,78%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>97,56%</t>
+  </si>
+  <si>
+    <t>97,29%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>97,83%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>98,2%</t>
+  </si>
+  <si>
+    <t>96,29%</t>
+  </si>
+  <si>
+    <t>98,58%</t>
+  </si>
+  <si>
+    <t>96,91%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
+  </si>
+  <si>
+    <t>97,18%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
   </si>
   <si>
     <t>1,19%</t>
   </si>
   <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>97,07%</t>
+  </si>
+  <si>
+    <t>98,68%</t>
+  </si>
+  <si>
+    <t>97,67%</t>
+  </si>
+  <si>
+    <t>99,38%</t>
+  </si>
+  <si>
+    <t>97,55%</t>
   </si>
   <si>
     <t>98,81%</t>
-  </si>
-  <si>
-    <t>97,81%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>98,66%</t>
-  </si>
-  <si>
-    <t>97,8%</t>
-  </si>
-  <si>
-    <t>99,24%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>98,11%</t>
-  </si>
-  <si>
-    <t>95,99%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>98,53%</t>
-  </si>
-  <si>
-    <t>96,74%</t>
-  </si>
-  <si>
-    <t>99,44%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
-  </si>
-  <si>
-    <t>97,04%</t>
-  </si>
-  <si>
-    <t>99,04%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
-  </si>
-  <si>
-    <t>98,74%</t>
-  </si>
-  <si>
-    <t>98,49%</t>
-  </si>
-  <si>
-    <t>97,25%</t>
-  </si>
-  <si>
-    <t>97,56%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
   </si>
 </sst>
 </file>
@@ -1194,7 +1170,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AE4834A-62CF-44AE-ACD1-F628A23C2993}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB4536DE-2F59-4EC0-915C-508551236723}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1536,7 +1512,7 @@
         <v>516</v>
       </c>
       <c r="I8" s="7">
-        <v>525571</v>
+        <v>525570</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>41</v>
@@ -1587,7 +1563,7 @@
         <v>523</v>
       </c>
       <c r="I9" s="7">
-        <v>532854</v>
+        <v>532853</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>26</v>
@@ -1945,7 +1921,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEA9196A-3E3A-476B-9505-31DC08A4F785}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4DC3BAE-DD68-4907-AAE1-5EFF94A18982}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2582,7 +2558,7 @@
         <v>1860</v>
       </c>
       <c r="D14" s="7">
-        <v>1978120</v>
+        <v>1978119</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>123</v>
@@ -2633,7 +2609,7 @@
         <v>1915</v>
       </c>
       <c r="D15" s="7">
-        <v>2036582</v>
+        <v>2036581</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>26</v>
@@ -2696,7 +2672,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A928DB40-E27D-4A85-B843-1ED20E32C1C0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E230A13-1057-41A2-A559-B36DC2C7AECC}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3178,7 +3154,7 @@
         <v>338</v>
       </c>
       <c r="D11" s="7">
-        <v>369662</v>
+        <v>369663</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>163</v>
@@ -3229,7 +3205,7 @@
         <v>345</v>
       </c>
       <c r="D12" s="7">
-        <v>377522</v>
+        <v>377523</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>26</v>
@@ -3447,7 +3423,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1A8D7B7-6AEA-4A73-AE25-C2000C03F029}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17C5BDE5-45EF-42DC-9445-778E2C3ECE3F}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3568,7 +3544,7 @@
         <v>14</v>
       </c>
       <c r="D4" s="7">
-        <v>11831</v>
+        <v>12018</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>186</v>
@@ -3583,7 +3559,7 @@
         <v>2</v>
       </c>
       <c r="I4" s="7">
-        <v>903</v>
+        <v>854</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>189</v>
@@ -3598,7 +3574,7 @@
         <v>16</v>
       </c>
       <c r="N4" s="7">
-        <v>12734</v>
+        <v>12872</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>191</v>
@@ -3619,7 +3595,7 @@
         <v>300</v>
       </c>
       <c r="D5" s="7">
-        <v>242880</v>
+        <v>231238</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>194</v>
@@ -3634,7 +3610,7 @@
         <v>121</v>
       </c>
       <c r="I5" s="7">
-        <v>73516</v>
+        <v>66479</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>197</v>
@@ -3649,7 +3625,7 @@
         <v>421</v>
       </c>
       <c r="N5" s="7">
-        <v>316396</v>
+        <v>297717</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>199</v>
@@ -3670,7 +3646,7 @@
         <v>314</v>
       </c>
       <c r="D6" s="7">
-        <v>254711</v>
+        <v>243256</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>26</v>
@@ -3685,7 +3661,7 @@
         <v>123</v>
       </c>
       <c r="I6" s="7">
-        <v>74419</v>
+        <v>67333</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>26</v>
@@ -3700,7 +3676,7 @@
         <v>437</v>
       </c>
       <c r="N6" s="7">
-        <v>329130</v>
+        <v>310589</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>26</v>
@@ -3723,46 +3699,46 @@
         <v>12</v>
       </c>
       <c r="D7" s="7">
-        <v>11981</v>
+        <v>12728</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>202</v>
       </c>
       <c r="F7" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>204</v>
       </c>
       <c r="H7" s="7">
         <v>11</v>
       </c>
       <c r="I7" s="7">
-        <v>10227</v>
+        <v>9194</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>205</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>206</v>
       </c>
       <c r="M7" s="7">
         <v>23</v>
       </c>
       <c r="N7" s="7">
-        <v>22208</v>
+        <v>21921</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3774,46 +3750,46 @@
         <v>904</v>
       </c>
       <c r="D8" s="7">
-        <v>991726</v>
+        <v>971140</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>212</v>
+        <v>43</v>
       </c>
       <c r="H8" s="7">
         <v>706</v>
       </c>
       <c r="I8" s="7">
-        <v>644968</v>
+        <v>699095</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>213</v>
+        <v>69</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>39</v>
+        <v>211</v>
       </c>
       <c r="M8" s="7">
         <v>1610</v>
       </c>
       <c r="N8" s="7">
-        <v>1636694</v>
+        <v>1670236</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>215</v>
+        <v>69</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3825,7 +3801,7 @@
         <v>916</v>
       </c>
       <c r="D9" s="7">
-        <v>1003707</v>
+        <v>983868</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>26</v>
@@ -3840,7 +3816,7 @@
         <v>717</v>
       </c>
       <c r="I9" s="7">
-        <v>655195</v>
+        <v>708289</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>26</v>
@@ -3855,7 +3831,7 @@
         <v>1633</v>
       </c>
       <c r="N9" s="7">
-        <v>1658902</v>
+        <v>1692157</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>26</v>
@@ -3878,46 +3854,46 @@
         <v>9</v>
       </c>
       <c r="D10" s="7">
-        <v>6609</v>
+        <v>6200</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>219</v>
+        <v>60</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="H10" s="7">
         <v>7</v>
       </c>
       <c r="I10" s="7">
-        <v>3831</v>
+        <v>3477</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="M10" s="7">
         <v>16</v>
       </c>
       <c r="N10" s="7">
-        <v>10440</v>
+        <v>9678</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>225</v>
+        <v>36</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3929,46 +3905,46 @@
         <v>338</v>
       </c>
       <c r="D11" s="7">
-        <v>343977</v>
+        <v>338053</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>229</v>
+        <v>68</v>
       </c>
       <c r="H11" s="7">
         <v>351</v>
       </c>
       <c r="I11" s="7">
-        <v>257052</v>
+        <v>242042</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="M11" s="7">
         <v>689</v>
       </c>
       <c r="N11" s="7">
-        <v>601029</v>
+        <v>580094</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>235</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3980,7 +3956,7 @@
         <v>347</v>
       </c>
       <c r="D12" s="7">
-        <v>350586</v>
+        <v>344253</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>26</v>
@@ -3995,7 +3971,7 @@
         <v>358</v>
       </c>
       <c r="I12" s="7">
-        <v>260883</v>
+        <v>245519</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>26</v>
@@ -4010,7 +3986,7 @@
         <v>705</v>
       </c>
       <c r="N12" s="7">
-        <v>611469</v>
+        <v>589772</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>26</v>
@@ -4033,46 +4009,46 @@
         <v>35</v>
       </c>
       <c r="D13" s="7">
-        <v>30421</v>
+        <v>30947</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>218</v>
+        <v>65</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>236</v>
+        <v>62</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="H13" s="7">
         <v>20</v>
       </c>
       <c r="I13" s="7">
-        <v>14961</v>
+        <v>13525</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>161</v>
+        <v>230</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="M13" s="7">
         <v>55</v>
       </c>
       <c r="N13" s="7">
-        <v>45382</v>
+        <v>44472</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>95</v>
+        <v>175</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4084,46 +4060,46 @@
         <v>1542</v>
       </c>
       <c r="D14" s="7">
-        <v>1578583</v>
+        <v>1540430</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>227</v>
+        <v>72</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>243</v>
+        <v>69</v>
       </c>
       <c r="H14" s="7">
         <v>1178</v>
       </c>
       <c r="I14" s="7">
-        <v>975536</v>
+        <v>1007616</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>170</v>
+        <v>237</v>
       </c>
       <c r="M14" s="7">
         <v>2720</v>
       </c>
       <c r="N14" s="7">
-        <v>2554120</v>
+        <v>2548046</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>103</v>
+        <v>182</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4135,7 +4111,7 @@
         <v>1577</v>
       </c>
       <c r="D15" s="7">
-        <v>1609004</v>
+        <v>1571377</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>26</v>
@@ -4150,7 +4126,7 @@
         <v>1198</v>
       </c>
       <c r="I15" s="7">
-        <v>990497</v>
+        <v>1021141</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>26</v>
@@ -4165,7 +4141,7 @@
         <v>2775</v>
       </c>
       <c r="N15" s="7">
-        <v>2599502</v>
+        <v>2592518</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>26</v>
